--- a/document/Git使用方法.xlsx
+++ b/document/Git使用方法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18315" windowHeight="8490" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="18315" windowHeight="8490" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Git_GitHubとは" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="234">
   <si>
     <t>ブラウザで以下のURLを開く。</t>
     <rPh sb="5" eb="7">
@@ -1765,7 +1765,77 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>.を指定すると、変更したファイルすべてが対象</t>
+    <t>サーバー(GitHub)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://github.com/TL-mi-test/firstRep</t>
+  </si>
+  <si>
+    <t>クライアント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows Vista</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://powerful-code.com/blog/2012/11/merge-or-rebase/</t>
+  </si>
+  <si>
+    <t>トラブル対処法</t>
+    <rPh sb="4" eb="7">
+      <t>タイショホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://qiita.com/muran001/items/dea2bbbaea1260098051</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Git入門：Git初学習者のための効率的な学習方法を考えてみた</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://blog.takanabe.tokyo/2014/12/13/74/</t>
+  </si>
+  <si>
+    <t>ステージ→アンステージ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>git rm --cached &lt;file&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>* ステージングエリアのファイルを元に戻す</t>
+    <rPh sb="17" eb="18">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>* ステージングされる前(作業エリア)のファイルを元に戻す</t>
+    <rPh sb="11" eb="12">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>.を指定すると、変更したファイルすべてが対象(カレントディレクトリの全ファイルが対象)</t>
     <rPh sb="2" eb="4">
       <t>シテイ</t>
     </rPh>
@@ -1775,25 +1845,56 @@
     <rPh sb="20" eb="22">
       <t>タイショウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>サーバー(GitHub)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://github.com/TL-mi-test/firstRep</t>
-  </si>
-  <si>
-    <t>クライアント</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Windows Vista</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://powerful-code.com/blog/2012/11/merge-or-rebase/</t>
+    <rPh sb="34" eb="35">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル削除をステージングエリアに反映</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">git rm </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リネームしたファイルをステージングエリアに反映</t>
+    <rPh sb="21" eb="23">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>git mv &lt;変更前ファイル名&gt; &lt;変更後ファイル名&gt;</t>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -4288,22 +4389,22 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -4884,10 +4985,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4933,336 +5034,369 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27">
+      <c r="B6" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
         <v>89</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C7" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="B5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="40.5">
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="40.5">
       <c r="B10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>120</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="B14" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="B15" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
         <v>97</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
         <v>139</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C20" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
-      <c r="B18" t="s">
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
         <v>99</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="4" t="s">
+    <row r="22" spans="2:5">
+      <c r="B22" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C22" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="B20" t="s">
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
         <v>144</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C23" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
-      <c r="B21" t="s">
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
         <v>100</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C24" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="B22" t="s">
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
         <v>101</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C25" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
-      <c r="B23" t="s">
+    <row r="26" spans="2:5">
+      <c r="B26" t="s">
         <v>102</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C26" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
-      <c r="B24" t="s">
+    <row r="27" spans="2:5">
+      <c r="B27" t="s">
         <v>148</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C27" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
-      <c r="B25" t="s">
+    <row r="28" spans="2:5">
+      <c r="B28" t="s">
         <v>150</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C28" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
-      <c r="B26" t="s">
+    <row r="29" spans="2:5">
+      <c r="B29" t="s">
         <v>152</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C29" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
-      <c r="B27" t="s">
+    <row r="30" spans="2:5">
+      <c r="B30" t="s">
         <v>103</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C30" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
-      <c r="B28" t="s">
+    <row r="31" spans="2:5">
+      <c r="B31" t="s">
         <v>104</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C31" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
-      <c r="B29" t="s">
+    <row r="32" spans="2:5">
+      <c r="B32" t="s">
         <v>105</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C32" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>161</v>
-      </c>
-      <c r="E33" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="40.5">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
       <c r="B35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C35" t="s">
-        <v>164</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C36" t="s">
-        <v>168</v>
+        <v>161</v>
+      </c>
+      <c r="E36" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="40.5">
       <c r="B38" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>170</v>
-      </c>
-      <c r="D38" s="3"/>
+        <v>164</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="C40" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" t="s">
-        <v>173</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s">
-        <v>172</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D41" s="3"/>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" t="s">
-        <v>174</v>
+        <v>114</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" t="s">
         <v>175</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C46" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5448,7 +5582,7 @@
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="2:3">
@@ -5465,10 +5599,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5486,6 +5620,16 @@
     <row r="3" spans="1:2">
       <c r="B3" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -5496,10 +5640,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5531,6 +5675,14 @@
         <v>214</v>
       </c>
     </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" t="s">
+        <v>224</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/Git使用方法.xlsx
+++ b/document/Git使用方法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18315" windowHeight="8490" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="18315" windowHeight="8490" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Git_GitHubとは" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="244">
   <si>
     <t>ブラウザで以下のURLを開く。</t>
     <rPh sb="5" eb="7">
@@ -1893,6 +1893,107 @@
     </rPh>
     <rPh sb="26" eb="27">
       <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>merge fast-forward</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>merge non-fast-forward</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分岐前の元ブランチが更新されていない場合、新しいブランチと元ブランチを一本にして(分岐がなかったことになる)マージする</t>
+    <rPh sb="0" eb="2">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イッポン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ブンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分岐前のブランチが更新されていなくても、新しいブランチを作成した履歴を残してマージする</t>
+    <rPh sb="0" eb="2">
+      <t>ブンキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rebase</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すべて一本のブランチで作業したようにマージする</t>
+    <rPh sb="3" eb="5">
+      <t>イッポン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rebaseの利用例</t>
+    <rPh sb="7" eb="9">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.backlog.jp/git-guide/stepup/stepup1_5.html</t>
+  </si>
+  <si>
+    <t>http://keijinsonyaban.blogspot.jp/2010/10/successful-git-branching-model.html</t>
+  </si>
+  <si>
+    <t>ブランチのモデル例</t>
+    <rPh sb="8" eb="9">
+      <t>レイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4987,7 +5088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -5409,10 +5510,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:J42"/>
+  <dimension ref="B3:K42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5565,29 +5666,63 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:11">
       <c r="B36" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="37" spans="2:3">
+      <c r="I36" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J36" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
       <c r="C37" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="39" spans="2:3">
+      <c r="I37" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="I38" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="J38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
       <c r="C39" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="41" spans="2:3">
+      <c r="J39" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="K40" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
       <c r="B41" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="42" spans="2:3">
+      <c r="J41" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
       <c r="B42" t="s">
         <v>214</v>
+      </c>
+      <c r="K42" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
